--- a/docs/项目安排.xlsx
+++ b/docs/项目安排.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="项目日程" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>6月20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +51,49 @@
   </si>
   <si>
     <t>7月25号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细页面（车，4s店）</t>
+  </si>
+  <si>
+    <t>细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.autohome.com.cn/364/options.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,13 +117,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,11 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -430,47 +489,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
